--- a/biology/Zoologie/William_Doherty/William_Doherty.xlsx
+++ b/biology/Zoologie/William_Doherty/William_Doherty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Doherty est un naturaliste américain, né le 15 mai 1857 à Cincinnati et mort le 25 mai 1901 à Nairobi.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il voyage en 1877 en Europe, en Turquie, en Palestine et en Égypte, en 1881 en Iran. Il commence à constituer une importante collection de papillons. De 1882 à 1883, il voyage en Inde, en Birmanie et dans l’archipel malais et en 1887 il part en Indonésie.
 Doherty vient étudier les collections de papillons rassemblées par les frères Lionel Walter Rothschild (1868-1937) et Charles Rothschild (1877-1923) au Muséum de Tring. Lord Lionel Rothschild l’emploie alors comme récolteur d’oiseaux, le meilleur qu’il ait jamais employé d’après lui. Il meurt dans l’est de l’Afrique de dysenterie.
@@ -544,7 +558,9 @@
           <t>Genres et Espèces nommées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Araotes Doherty, 1889; un genre de Theclinae
 Phengaris Doherty, 1891;
@@ -581,7 +597,9 @@
           <t>Espèces dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs espèces d’oiseaux lui sont dédiées :
 le Zostérops de Doherty (Lophozosterops dohertyi) par Ernst Hartert en 1896.
@@ -617,7 +635,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres) : 400 p.  (ISBN 0-300-10359-X)
  Portail de l’histoire de la zoologie et de la botanique   Portail des États-Unis   Portail de l’entomologie   Portail de la zoologie                  </t>
